--- a/TeacherMaster.xlsx
+++ b/TeacherMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{321F39EA-5D83-4346-86B6-B1E4A1C39342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1000001_{321F39EA-5D83-4346-86B6-B1E4A1C39342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9FCE1B-0BE2-C949-BDE6-1A392A829169}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>poojaramakantshukla85@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>rks_1987</t>
+  </si>
+  <si>
+    <t>prk_1985</t>
   </si>
 </sst>
 </file>
@@ -427,15 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.015625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +457,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,8 +471,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,6 +484,9 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TeacherMaster.xlsx
+++ b/TeacherMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1000001_{321F39EA-5D83-4346-86B6-B1E4A1C39342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9FCE1B-0BE2-C949-BDE6-1A392A829169}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1000001_{321F39EA-5D83-4346-86B6-B1E4A1C39342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6088B8CD-6B89-034A-AF1B-60C328B94E2D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>prk_1985</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -480,19 +483,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED6E71FD-81B9-024B-B264-81335C00088C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1D860625-F5B6-A348-869E-3E4F2E309B1E}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{ED6E71FD-81B9-024B-B264-81335C00088C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{1D860625-F5B6-A348-869E-3E4F2E309B1E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8E71D74A-B975-7F46-8249-4C6EC7876226}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
